--- a/E-commerce2/src/test/java/TestData/test data.xlsx
+++ b/E-commerce2/src/test/java/TestData/test data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>User Name</t>
   </si>
@@ -26,22 +26,28 @@
     <t>kapoor.nikita5455@gmail.com</t>
   </si>
   <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>angel12345</t>
+  </si>
+  <si>
+    <t>invalidpassword</t>
+  </si>
+  <si>
     <t>invalid</t>
   </si>
   <si>
-    <t>angel12345</t>
-  </si>
-  <si>
-    <t>invalidpassword</t>
+    <t>invalid.email@gmail.com</t>
   </si>
   <si>
     <t>password@12345</t>
   </si>
   <si>
+    <t>Password@12345</t>
+  </si>
+  <si>
     <t>valid</t>
-  </si>
-  <si>
-    <t>invalid.email@gmail.com</t>
   </si>
   <si>
     <t>email</t>
@@ -382,29 +388,29 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -424,33 +430,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3">
         <v>123456.0</v>
@@ -459,24 +465,24 @@
         <v>1.2345678E7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3">
         <v>282010.0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>123456.0</v>
@@ -486,21 +492,21 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3">
         <v>282010.0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3">
         <v>123456.0</v>
@@ -509,22 +515,22 @@
         <v>1.2345678E7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3">
         <v>282010.0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3">
         <v>123456.0</v>
@@ -533,22 +539,22 @@
         <v>1.2345678E7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3">
         <v>282010.0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <v>123456.0</v>
@@ -557,21 +563,21 @@
         <v>1.2345678E7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3">
         <v>123456.0</v>
@@ -580,10 +586,10 @@
         <v>1.2345678E7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
         <v>8907.0</v>
@@ -592,12 +598,12 @@
         <v>282010.0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
         <v>123456.0</v>
@@ -606,24 +612,24 @@
         <v>1.2345678E7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2">
         <v>2.8900987654E10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
         <v>123456.0</v>
@@ -632,19 +638,19 @@
         <v>1.2345678E7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -655,19 +661,19 @@
         <v>1.2345678E7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3">
         <v>282010.0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
